--- a/data/trans_camb/IP7_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP7_R-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>3,56</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,37; -1,86</t>
+          <t>-17,0; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,89; -0,91</t>
+          <t>-18,08; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,93; -1,04</t>
+          <t>-6,9; 15,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 0,96</t>
+          <t>0,0; 24,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 1,85</t>
+          <t>0,0; 24,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 6,72</t>
+          <t>0,0; 20,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,75; -0,96</t>
+          <t>-3,26; 9,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,27; -0,38</t>
+          <t>-3,51; 9,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,0</t>
+          <t>-2,09; 12,06</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-74,45%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-67,69%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-64,8%</t>
+          <t>34,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-43,12%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,62%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>79,37%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-66,08%</t>
+          <t>113,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-51,89%</t>
+          <t>37,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-28,55%</t>
+          <t>202,59%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-90,54; -29,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-88,85; -9,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-86,41; -19,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-88,51; 110,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,7; 188,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,01; 564,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-86,24; -27,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-78,08; -7,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-64,75; 31,45</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-1,17</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 3,63</t>
+          <t>-7,37; -1,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 0,68</t>
+          <t>-6,89; -0,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 3,96</t>
+          <t>-6,93; -1,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 4,09</t>
+          <t>-3,23; 0,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,05</t>
+          <t>-2,35; 1,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,87</t>
+          <t>-1,1; 6,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,1</t>
+          <t>-4,75; -0,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 0,69</t>
+          <t>-4,27; -0,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,55</t>
+          <t>-3,32; 1,0</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>-74,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-52,34%</t>
+          <t>-67,69%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>-64,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>244,14%</t>
+          <t>-43,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>48,61%</t>
+          <t>-8,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>79,37%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>64,41%</t>
+          <t>-66,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-32,32%</t>
+          <t>-51,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>35,0%</t>
+          <t>-28,55%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-58,02; 221,5</t>
+          <t>-90,54; -29,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-89,87; 77,72</t>
+          <t>-88,85; -9,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-55,04; 284,42</t>
+          <t>-86,41; -19,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,08; —</t>
+          <t>-88,51; 110,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,7; 188,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,01; 564,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,22; 281,6</t>
+          <t>-86,24; -27,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-77,22; 78,34</t>
+          <t>-78,08; -7,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-42,96; 247,14</t>
+          <t>-64,75; 31,45</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,9</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>0,04</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 0,0</t>
+          <t>-1,58; 4,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,08; 0,0</t>
+          <t>-1,86; 4,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 15,1</t>
+          <t>-3,39; 1,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,37</t>
+          <t>-1,34; 4,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,78</t>
+          <t>-2,2; 2,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,92</t>
+          <t>-1,55; 4,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 9,92</t>
+          <t>-0,49; 3,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 9,85</t>
+          <t>-1,33; 2,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 12,06</t>
+          <t>-1,89; 1,93</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>71,46%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>46,18%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>34,78%</t>
+          <t>-35,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>78,16%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>51,98%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>113,13%</t>
+          <t>74,19%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>37,63%</t>
+          <t>33,63%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>202,59%</t>
+          <t>1,9%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-51,77; 498,43</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-55,61; 470,13</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 319,68</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-56,81; 770,14</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,28; 555,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,33; 325,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,12; 223,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,75; 184,35</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,63</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 4,54</t>
+          <t>-2,29; 3,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 4,2</t>
+          <t>-3,98; 0,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 1,79</t>
+          <t>-2,32; 3,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,16</t>
+          <t>-0,02; 4,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,69</t>
+          <t>-1,06; 2,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 4,0</t>
+          <t>-0,94; 2,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,51</t>
+          <t>-0,52; 3,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,55</t>
+          <t>-1,95; 0,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 1,93</t>
+          <t>-0,95; 2,55</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>71,46%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>46,18%</t>
+          <t>-52,34%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-35,67%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>78,16%</t>
+          <t>244,14%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>48,61%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>51,98%</t>
+          <t>93,67%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>74,19%</t>
+          <t>64,41%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>33,63%</t>
+          <t>-32,32%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>35,0%</t>
         </is>
       </c>
     </row>
@@ -1655,22 +1655,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-51,77; 498,43</t>
+          <t>-58,02; 221,5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-55,61; 470,13</t>
+          <t>-89,87; 77,72</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 319,68</t>
+          <t>-55,04; 284,42</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-56,81; 770,14</t>
+          <t>-48,08; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1680,22 +1680,22 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-66,28; 555,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 325,15</t>
+          <t>-28,22; 281,6</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-47,12; 223,07</t>
+          <t>-77,22; 78,34</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-65,75; 184,35</t>
+          <t>-42,96; 247,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP7_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP7_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,27 +685,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 0,0</t>
+          <t>-13,91; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,08; 0,0</t>
+          <t>-15,31; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 15,1</t>
+          <t>-6,78; 16,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,37</t>
+          <t>0,0; 23,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,78</t>
+          <t>0,0; 25,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 9,92</t>
+          <t>-1,79; 9,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 9,85</t>
+          <t>-3,54; 9,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 12,06</t>
+          <t>-2,01; 11,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 1,62</t>
+          <t>-4,07; 1,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 3,37</t>
+          <t>-3,26; 3,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 4,52</t>
+          <t>-2,83; 5,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 2,31</t>
+          <t>-4,21; 2,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 3,06</t>
+          <t>-3,94; 3,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 3,01</t>
+          <t>-4,05; 3,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 1,41</t>
+          <t>-3,24; 1,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,38</t>
+          <t>-2,63; 2,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 2,69</t>
+          <t>-2,57; 2,53</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 278,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-86,0; 392,77</t>
+          <t>-86,09; 373,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-87,3; 552,74</t>
+          <t>-87,31; 588,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 261,26</t>
+          <t>-100,0; 348,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 232,8</t>
+          <t>-88,33; 422,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 528,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-81,98; 101,09</t>
+          <t>-81,59; 97,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,69; 167,26</t>
+          <t>-69,8; 140,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-73,58; 183,85</t>
+          <t>-75,51; 156,47</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,37; -1,86</t>
+          <t>-7,24; -1,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,89; -0,91</t>
+          <t>-6,99; -1,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,93; -1,04</t>
+          <t>-6,9; -0,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 0,96</t>
+          <t>-3,24; 0,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 1,85</t>
+          <t>-2,62; 1,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 6,72</t>
+          <t>-0,99; 7,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,75; -0,96</t>
+          <t>-4,63; -1,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,27; -0,38</t>
+          <t>-4,21; -0,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,0</t>
+          <t>-3,22; 1,44</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-90,54; -29,81</t>
+          <t>-92,08; -29,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-88,85; -9,77</t>
+          <t>-89,71; -22,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-86,41; -19,25</t>
+          <t>-85,88; -11,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-88,51; 110,56</t>
+          <t>-89,86; 111,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-69,7; 188,58</t>
+          <t>-73,04; 151,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,01; 564,81</t>
+          <t>-43,39; 461,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-86,24; -27,62</t>
+          <t>-85,61; -25,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-78,08; -7,74</t>
+          <t>-76,75; -11,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-64,75; 31,45</t>
+          <t>-65,97; 49,95</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 4,54</t>
+          <t>-1,54; 4,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 4,2</t>
+          <t>-1,69; 4,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 1,79</t>
+          <t>-3,41; 1,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,16</t>
+          <t>-1,21; 4,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,69</t>
+          <t>-1,91; 2,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 4,0</t>
+          <t>-1,81; 3,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,51</t>
+          <t>-0,51; 3,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,55</t>
+          <t>-1,28; 2,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 1,93</t>
+          <t>-1,61; 1,99</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-51,77; 498,43</t>
+          <t>-55,76; 488,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-55,61; 470,13</t>
+          <t>-56,35; 459,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 319,68</t>
+          <t>-100,0; 325,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-56,81; 770,14</t>
+          <t>-61,76; 582,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,91; 595,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,28; 555,01</t>
+          <t>-71,71; 542,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 325,15</t>
+          <t>-20,93; 311,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-47,12; 223,07</t>
+          <t>-44,88; 234,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-65,75; 184,35</t>
+          <t>-61,79; 208,25</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 3,63</t>
+          <t>-2,0; 3,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 0,68</t>
+          <t>-3,87; 0,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 3,96</t>
+          <t>-2,3; 3,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 4,09</t>
+          <t>-0,1; 4,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,05</t>
+          <t>-1,09; 2,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,87</t>
+          <t>-0,88; 2,95</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,1</t>
+          <t>-0,49; 3,01</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 0,69</t>
+          <t>-1,87; 0,77</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,55</t>
+          <t>-1,07; 2,46</t>
         </is>
       </c>
     </row>
@@ -1655,22 +1655,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-58,02; 221,5</t>
+          <t>-52,43; 250,88</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-89,87; 77,72</t>
+          <t>-90,11; 75,75</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-55,04; 284,42</t>
+          <t>-60,16; 222,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-48,08; —</t>
+          <t>-60,48; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-28,22; 281,6</t>
+          <t>-23,81; 273,69</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-77,22; 78,34</t>
+          <t>-77,6; 75,63</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-42,96; 247,14</t>
+          <t>-44,55; 215,67</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 0,41</t>
+          <t>-2,57; 0,53</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,99; -0,04</t>
+          <t>-2,86; -0,01</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 0,38</t>
+          <t>-2,52; 0,37</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 1,83</t>
+          <t>-0,65; 1,91</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,34</t>
+          <t>-0,8; 1,38</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,68</t>
+          <t>-0,22; 2,78</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,68</t>
+          <t>-1,18; 0,76</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,25</t>
+          <t>-1,57; 0,31</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,93</t>
+          <t>-1,14; 0,98</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-59,51; 14,7</t>
+          <t>-57,59; 20,51</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-65,92; 3,64</t>
+          <t>-67,48; 0,3</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-62,68; 15,58</t>
+          <t>-60,09; 15,7</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-28,29; 162,32</t>
+          <t>-30,56; 163,03</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 117,53</t>
+          <t>-37,75; 114,98</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 242,63</t>
+          <t>-14,64; 231,28</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-36,2; 31,75</t>
+          <t>-37,56; 32,83</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-48,15; 13,67</t>
+          <t>-50,76; 16,8</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-34,45; 44,25</t>
+          <t>-36,75; 46,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP7_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP7_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 0,0</t>
+          <t>-16,68; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 0,0</t>
+          <t>-17,24; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 16,12</t>
+          <t>-6,85; 15,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,83</t>
+          <t>0,0; 27,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,66</t>
+          <t>0,0; 29,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,92</t>
+          <t>0,0; 21,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 9,52</t>
+          <t>-3,25; 11,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 9,41</t>
+          <t>-3,59; 8,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 11,54</t>
+          <t>-1,99; 12,14</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 1,72</t>
+          <t>-3,9; 1,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 3,5</t>
+          <t>-3,35; 4,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 5,0</t>
+          <t>-2,89; 4,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 2,55</t>
+          <t>-4,24; 2,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 3,23</t>
+          <t>-3,97; 3,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 3,03</t>
+          <t>-3,95; 3,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,08</t>
+          <t>-3,16; 1,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 2,22</t>
+          <t>-2,47; 2,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 2,53</t>
+          <t>-2,58; 2,55</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 189,9</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-89,14; 447,31</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-83,15; 511,69</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 262,62</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 292,79</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-86,09; 373,6</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-87,31; 588,32</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 348,46</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-88,33; 422,47</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 528,68</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-81,59; 97,52</t>
+          <t>-80,62; 113,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,8; 140,19</t>
+          <t>-67,08; 175,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-75,51; 156,47</t>
+          <t>-73,57; 171,83</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,24; -1,51</t>
+          <t>-7,49; -1,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,99; -1,31</t>
+          <t>-7,08; -1,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,9; -0,94</t>
+          <t>-6,95; -1,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 0,95</t>
+          <t>-3,32; 0,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 1,87</t>
+          <t>-2,52; 2,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 7,0</t>
+          <t>-0,81; 6,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,63; -1,11</t>
+          <t>-4,63; -0,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; -0,57</t>
+          <t>-4,27; -0,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 1,44</t>
+          <t>-3,25; 1,16</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-92,08; -29,05</t>
+          <t>-92,29; -26,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-89,71; -22,22</t>
+          <t>-89,29; -20,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-85,88; -11,36</t>
+          <t>-86,71; -23,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-89,86; 111,03</t>
+          <t>-90,01; 108,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-73,04; 151,79</t>
+          <t>-74,78; 208,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,39; 461,22</t>
+          <t>-40,38; 656,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-85,61; -25,1</t>
+          <t>-85,22; -26,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-76,75; -11,53</t>
+          <t>-76,57; -8,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-65,97; 49,95</t>
+          <t>-63,21; 41,64</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 4,71</t>
+          <t>-1,41; 4,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 4,15</t>
+          <t>-1,82; 4,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 1,89</t>
+          <t>-3,27; 1,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 4,21</t>
+          <t>-1,09; 4,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,76</t>
+          <t>-2,09; 2,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 3,8</t>
+          <t>-1,63; 4,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 3,47</t>
+          <t>-0,54; 3,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 2,64</t>
+          <t>-1,05; 2,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,99</t>
+          <t>-1,88; 1,94</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-55,76; 488,98</t>
+          <t>-45,34; 513,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-56,35; 459,0</t>
+          <t>-60,36; 414,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 325,98</t>
+          <t>-100,0; 269,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-61,76; 582,57</t>
+          <t>-48,76; 898,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-78,91; 595,09</t>
+          <t>-73,48; 649,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-71,71; 542,17</t>
+          <t>-71,03; 762,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 311,25</t>
+          <t>-24,83; 299,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-44,88; 234,47</t>
+          <t>-41,65; 264,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-61,79; 208,25</t>
+          <t>-63,52; 203,54</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 3,57</t>
+          <t>-2,33; 3,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,6</t>
+          <t>-3,78; 0,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 3,7</t>
+          <t>-2,2; 4,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 4,01</t>
+          <t>-0,23; 4,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,17</t>
+          <t>-1,08; 2,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 2,95</t>
+          <t>-0,91; 3,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,01</t>
+          <t>-0,49; 2,85</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 0,77</t>
+          <t>-1,99; 0,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 2,46</t>
+          <t>-0,82; 2,57</t>
         </is>
       </c>
     </row>
@@ -1655,22 +1655,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-52,43; 250,88</t>
+          <t>-59,93; 238,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-90,11; 75,75</t>
+          <t>-90,7; 111,58</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-60,16; 222,39</t>
+          <t>-57,47; 253,67</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-60,48; —</t>
+          <t>-61,98; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 273,69</t>
+          <t>-26,9; 275,99</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-77,6; 75,63</t>
+          <t>-77,23; 80,27</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-44,55; 215,67</t>
+          <t>-42,01; 242,23</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 0,53</t>
+          <t>-2,56; 0,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,86; -0,01</t>
+          <t>-2,76; -0,06</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 0,37</t>
+          <t>-2,61; 0,26</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,91</t>
+          <t>-0,63; 1,79</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,38</t>
+          <t>-0,94; 1,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,78</t>
+          <t>-0,3; 2,62</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,76</t>
+          <t>-1,13; 0,81</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,31</t>
+          <t>-1,53; 0,34</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,98</t>
+          <t>-1,11; 0,97</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-57,59; 20,51</t>
+          <t>-56,52; 13,61</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-67,48; 0,3</t>
+          <t>-63,33; 2,01</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-60,09; 15,7</t>
+          <t>-60,46; 10,83</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,56; 163,03</t>
+          <t>-30,18; 145,12</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-37,75; 114,98</t>
+          <t>-41,68; 115,22</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 231,28</t>
+          <t>-17,51; 213,65</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-37,56; 32,83</t>
+          <t>-36,3; 37,2</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-50,76; 16,8</t>
+          <t>-49,96; 16,15</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-36,75; 46,5</t>
+          <t>-37,76; 45,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP7_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP7_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,9</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 0,0</t>
+          <t>-2,6; 4,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 0,0</t>
+          <t>-2,41; 4,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 15,24</t>
+          <t>-2,54; 4,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,77</t>
+          <t>-4,19; 0,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,85</t>
+          <t>-3,32; 2,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,2</t>
+          <t>-2,52; 4,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 11,17</t>
+          <t>-2,57; 1,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 8,87</t>
+          <t>-2,36; 2,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 12,14</t>
+          <t>-2,03; 2,8</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,78%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-51,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-18,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>113,13%</t>
+          <t>-17,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,63%</t>
+          <t>-1,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>202,59%</t>
+          <t>9,47%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-79,78; 466,2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-74,75; 502,71</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-81,35; 623,07</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,4; 347,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,57; 458,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,65; 109,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,28; 141,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,28; 190,83</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,35</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,63</t>
+          <t>-3,23; 0,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 4,02</t>
+          <t>-2,35; 1,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,46</t>
+          <t>-0,51; 15,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 2,59</t>
+          <t>-7,37; -1,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 3,09</t>
+          <t>-6,89; -0,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 3,63</t>
+          <t>-6,9; -0,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 1,13</t>
+          <t>-4,75; -0,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,53</t>
+          <t>-4,27; -0,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,55</t>
+          <t>-2,64; 3,68</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-37,93%</t>
+          <t>-43,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>-8,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>159,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-31,2%</t>
+          <t>-74,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-16,01%</t>
+          <t>-67,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-31,33%</t>
+          <t>-63,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-34,49%</t>
+          <t>-66,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,17%</t>
+          <t>-51,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-11,45%</t>
+          <t>-8,69%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 189,9</t>
+          <t>-88,51; 110,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-89,14; 447,31</t>
+          <t>-69,7; 188,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-83,15; 511,69</t>
+          <t>-33,29; 1443,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 262,62</t>
+          <t>-90,54; -29,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 292,79</t>
+          <t>-88,85; -9,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,08; -15,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-80,62; 113,47</t>
+          <t>-86,24; -27,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,08; 175,56</t>
+          <t>-78,08; -7,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-73,57; 171,83</t>
+          <t>-58,36; 115,48</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,49; -1,54</t>
+          <t>-1,34; 4,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,08; -1,07</t>
+          <t>-2,2; 2,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,95; -1,16</t>
+          <t>-1,82; 3,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 0,92</t>
+          <t>-1,58; 4,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 2,08</t>
+          <t>-1,86; 4,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 6,49</t>
+          <t>-3,15; 1,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,63; -0,93</t>
+          <t>-0,49; 3,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,27; -0,38</t>
+          <t>-1,33; 2,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,16</t>
+          <t>-2,06; 1,67</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-74,45%</t>
+          <t>78,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-67,69%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-64,8%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-43,12%</t>
+          <t>71,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,62%</t>
+          <t>46,18%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>79,37%</t>
+          <t>-33,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-66,08%</t>
+          <t>74,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-51,89%</t>
+          <t>33,63%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-28,55%</t>
+          <t>-4,46%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-92,29; -26,98</t>
+          <t>-56,81; 770,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-89,29; -20,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-86,71; -23,13</t>
+          <t>-70,86; 502,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-90,01; 108,85</t>
+          <t>-51,77; 498,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-74,78; 208,31</t>
+          <t>-55,61; 470,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,38; 656,18</t>
+          <t>-100,0; 358,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-85,22; -26,1</t>
+          <t>-24,33; 325,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-76,57; -8,92</t>
+          <t>-47,12; 223,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-63,21; 41,64</t>
+          <t>-68,18; 161,77</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,78</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 4,72</t>
+          <t>-0,02; 4,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 4,05</t>
+          <t>-1,06; 2,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 1,74</t>
+          <t>-0,95; 3,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 4,51</t>
+          <t>-2,29; 3,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 2,62</t>
+          <t>-3,98; 0,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 4,12</t>
+          <t>-2,16; 4,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 3,52</t>
+          <t>-0,52; 3,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,79</t>
+          <t>-1,95; 0,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 1,94</t>
+          <t>-0,88; 2,78</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>71,46%</t>
+          <t>244,14%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>46,18%</t>
+          <t>48,61%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-35,67%</t>
+          <t>104,3%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>78,16%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>-52,34%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>51,98%</t>
+          <t>25,5%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>74,19%</t>
+          <t>64,41%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>33,63%</t>
+          <t>-32,32%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>43,73%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-45,34; 513,38</t>
+          <t>-48,08; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-60,36; 414,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 269,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-48,76; 898,14</t>
+          <t>-58,02; 221,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-73,48; 649,75</t>
+          <t>-89,87; 77,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-71,03; 762,65</t>
+          <t>-54,01; 311,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-24,83; 299,01</t>
+          <t>-28,22; 281,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-41,65; 264,34</t>
+          <t>-77,22; 78,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-63,52; 203,54</t>
+          <t>-37,94; 272,83</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,14</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 3,75</t>
+          <t>-0,6; 1,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 0,82</t>
+          <t>-0,97; 1,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 4,03</t>
+          <t>-0,08; 4,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 4,1</t>
+          <t>-2,51; 0,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,08</t>
+          <t>-2,99; -0,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 3,1</t>
+          <t>-2,74; 0,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,85</t>
+          <t>-1,15; 0,68</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 0,65</t>
+          <t>-1,49; 0,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,57</t>
+          <t>-0,84; 1,68</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>37,05%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-52,34%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>85,63%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>244,14%</t>
+          <t>-29,26%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>48,61%</t>
+          <t>-40,83%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>-30,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>64,41%</t>
+          <t>-8,42%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-32,32%</t>
+          <t>-24,23%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>35,0%</t>
+          <t>5,39%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-59,93; 238,14</t>
+          <t>-28,29; 162,32</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-90,7; 111,58</t>
+          <t>-41,59; 117,53</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-57,47; 253,67</t>
+          <t>-12,81; 350,64</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-61,98; —</t>
+          <t>-59,51; 14,7</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,92; 3,64</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,17; 20,14</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-26,9; 275,99</t>
+          <t>-36,2; 31,75</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-77,23; 80,27</t>
+          <t>-48,15; 13,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-42,01; 242,23</t>
+          <t>-28,71; 74,12</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,44</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-1,15</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,64</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 0,33</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-2,76; -0,06</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-2,61; 0,26</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 1,79</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,94; 1,32</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 2,62</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 0,81</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 0,34</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-1,11; 0,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-29,26%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-40,83%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-32,66%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>37,05%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>11,97%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>58,11%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-8,42%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-24,23%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-4,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-56,52; 13,61</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-63,33; 2,01</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-60,46; 10,83</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-30,18; 145,12</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-41,68; 115,22</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-17,51; 213,65</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-36,3; 37,2</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-49,96; 16,15</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-37,76; 45,38</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
